--- a/user_stories/04_page_de_chat/Ajouter_un_contact_chatxlsx.xlsx
+++ b/user_stories/04_page_de_chat/Ajouter_un_contact_chatxlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbochard/Code/Openclassrooms/Projet/P03_Learnathome/user_stories/04_page_de_chat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF39DC-930C-2C49-96F9-621102791C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07330EFC-CE61-6547-A298-C163181EC22B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3640" windowWidth="27640" windowHeight="16940" xr2:uid="{8CBBB9A7-93DC-6641-AFF9-2E3896D2735F}"/>
+    <workbookView xWindow="1680" yWindow="560" windowWidth="26780" windowHeight="16940" xr2:uid="{8CBBB9A7-93DC-6641-AFF9-2E3896D2735F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -51,25 +51,25 @@
     <t>Ajouter un utilisateur</t>
   </si>
   <si>
-    <t>utilisateur connecté et sur la page de chat</t>
-  </si>
-  <si>
-    <t>ajoiuter un contact</t>
-  </si>
-  <si>
     <t>pouvoir discuter avec lui</t>
   </si>
   <si>
-    <t>L'utilisateur ajoute un contact afin de pouvoir lui envoyer et recevoir des messages</t>
-  </si>
-  <si>
     <t>je suis un utilisateur connecté et que je suis sur la page de chat</t>
   </si>
   <si>
-    <t>clique sur un boutton</t>
-  </si>
-  <si>
-    <t>je peux renseigner une adresse mail afin de pouvoir ajouter un contact</t>
+    <t>utilisateur connecté</t>
+  </si>
+  <si>
+    <t>ajouter un contact</t>
+  </si>
+  <si>
+    <t>L'utilisateur ajoute un contact afin de pouvoir lui envoyer des messages</t>
+  </si>
+  <si>
+    <t>clique sur le boutton "+"</t>
+  </si>
+  <si>
+    <t>je peux ajouter un contact</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -237,11 +237,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +304,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC294F4D-7C2E-8740-BDBE-15FEB2B5EFCF}">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,57 +638,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -664,7 +696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
